--- a/Heuristicas/Resultado_Ensemble_smape_cenario_33.xlsx
+++ b/Heuristicas/Resultado_Ensemble_smape_cenario_33.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amaral\Documents\Faculdade\tcc\Heuristicas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD6AF57-A54E-4EAA-8EB2-6B401A2A2F26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -250,8 +266,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,11 +330,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -360,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,9 +416,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,6 +468,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,14 +661,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,83 +687,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D2">
-        <v>35.075</v>
+        <v>35.075000000000003</v>
       </c>
       <c r="E2">
-        <v>0.772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.77200000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C3">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D3">
-        <v>0.9360000000000001</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="E3">
-        <v>0.213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.008999999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D4">
-        <v>5.506</v>
+        <v>5.5060000000000002</v>
       </c>
       <c r="E4">
-        <v>0.786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C5">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D5">
-        <v>23.758</v>
+        <v>23.757999999999999</v>
       </c>
       <c r="E5">
-        <v>3.364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>3.3639999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C6">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D6">
         <v>105.709</v>
@@ -710,114 +772,114 @@
         <v>2.258</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C7">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
-        <v>90.477</v>
+        <v>90.477000000000004</v>
       </c>
       <c r="E7">
-        <v>1.632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1.6319999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.138</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="C8">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D8">
         <v>212.042</v>
       </c>
       <c r="E8">
-        <v>6.118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>6.1180000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08799999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="C9">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D9">
-        <v>191.187</v>
+        <v>191.18700000000001</v>
       </c>
       <c r="E9">
-        <v>8.521000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>8.5210000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.167</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>184.686</v>
+        <v>184.68600000000001</v>
       </c>
       <c r="E10">
-        <v>0.226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.231</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="C11">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D11">
         <v>195.935</v>
       </c>
       <c r="E11">
-        <v>6.521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>6.5209999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.117</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="C12">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D12">
-        <v>207.646</v>
+        <v>207.64599999999999</v>
       </c>
       <c r="E12">
-        <v>5.404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>5.4039999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -826,27 +888,27 @@
         <v>11.525</v>
       </c>
       <c r="E13">
-        <v>0.284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C14">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D14">
         <v>127.3</v>
       </c>
       <c r="E14">
-        <v>2.926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>2.9260000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -854,16 +916,16 @@
         <v>0.223</v>
       </c>
       <c r="C15">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D15">
-        <v>45.254</v>
+        <v>45.253999999999998</v>
       </c>
       <c r="E15">
-        <v>0.914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -871,16 +933,16 @@
         <v>0.153</v>
       </c>
       <c r="C16">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D16">
-        <v>29.807</v>
+        <v>29.806999999999999</v>
       </c>
       <c r="E16">
-        <v>2.566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>2.5659999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -888,55 +950,55 @@
         <v>0.1</v>
       </c>
       <c r="C17">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D17">
-        <v>33.106</v>
+        <v>33.106000000000002</v>
       </c>
       <c r="E17">
-        <v>0.487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.096</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="C18">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D18">
-        <v>23.601</v>
+        <v>23.600999999999999</v>
       </c>
       <c r="E18">
         <v>0.254</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C19">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D19">
-        <v>80.485</v>
+        <v>80.484999999999999</v>
       </c>
       <c r="E19">
-        <v>0.422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -945,103 +1007,103 @@
         <v>43.17</v>
       </c>
       <c r="E20">
-        <v>0.458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.08699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="C21">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D21">
-        <v>90.83799999999999</v>
+        <v>90.837999999999994</v>
       </c>
       <c r="E21">
-        <v>5.164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>5.1639999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C22">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D22">
-        <v>218.207</v>
+        <v>218.20699999999999</v>
       </c>
       <c r="E22">
-        <v>28.548</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>28.547999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.162</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="C23">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D23">
-        <v>163.545</v>
+        <v>163.54499999999999</v>
       </c>
       <c r="E23">
-        <v>5.458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>5.4580000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C24">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D24">
-        <v>42.566</v>
+        <v>42.566000000000003</v>
       </c>
       <c r="E24">
-        <v>0.409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.264</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="C25">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D25">
-        <v>135.283</v>
+        <v>135.28299999999999</v>
       </c>
       <c r="E25">
         <v>5.819</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.043</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C26">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D26">
         <v>18.715</v>
@@ -1050,41 +1112,41 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C27">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D27">
-        <v>39.781</v>
+        <v>39.780999999999999</v>
       </c>
       <c r="E27">
         <v>1.218</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.07199999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C28">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D28">
-        <v>75.964</v>
+        <v>75.963999999999999</v>
       </c>
       <c r="E28">
-        <v>2.221</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>2.2210000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1092,21 +1154,21 @@
         <v>0.193</v>
       </c>
       <c r="C29">
-        <v>0.028</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D29">
         <v>241.125</v>
       </c>
       <c r="E29">
-        <v>38.724</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>38.723999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1118,24 +1180,24 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C31">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D31">
-        <v>43.166</v>
+        <v>43.165999999999997</v>
       </c>
       <c r="E31">
-        <v>0.638</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1143,84 +1205,84 @@
         <v>0.152</v>
       </c>
       <c r="C32">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D32">
-        <v>351.156</v>
+        <v>351.15600000000001</v>
       </c>
       <c r="E32">
-        <v>8.304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>8.3040000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.079</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="C33">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D33">
-        <v>35.861</v>
+        <v>35.860999999999997</v>
       </c>
       <c r="E33">
-        <v>0.291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.239</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="C34">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D34">
-        <v>416.502</v>
+        <v>416.50200000000001</v>
       </c>
       <c r="E34">
         <v>11.567</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.074</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="C35">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D35">
-        <v>81.178</v>
+        <v>81.177999999999997</v>
       </c>
       <c r="E35">
-        <v>5.154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>5.1539999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="C36">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D36">
         <v>173.887</v>
       </c>
       <c r="E36">
-        <v>2.959</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>2.9590000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1228,84 +1290,84 @@
         <v>0.157</v>
       </c>
       <c r="C37">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D37">
-        <v>9.191000000000001</v>
+        <v>9.1910000000000007</v>
       </c>
       <c r="E37">
         <v>0.156</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.271</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="C38">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D38">
-        <v>324.046</v>
+        <v>324.04599999999999</v>
       </c>
       <c r="E38">
         <v>7.05</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.066</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C39">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D39">
-        <v>37.549</v>
+        <v>37.548999999999999</v>
       </c>
       <c r="E39">
-        <v>0.538</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C40">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D40">
-        <v>6.176</v>
+        <v>6.1760000000000002</v>
       </c>
       <c r="E40">
         <v>0.88</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="C41">
         <v>0.01</v>
       </c>
       <c r="D41">
-        <v>400.223</v>
+        <v>400.22300000000001</v>
       </c>
       <c r="E41">
         <v>14.622</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1313,16 +1375,16 @@
         <v>0.24</v>
       </c>
       <c r="C42">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D42">
         <v>331.108</v>
       </c>
       <c r="E42">
-        <v>32.779</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>32.779000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1330,16 +1392,16 @@
         <v>0.106</v>
       </c>
       <c r="C43">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D43">
-        <v>64.09099999999999</v>
+        <v>64.090999999999994</v>
       </c>
       <c r="E43">
-        <v>2.333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>2.3330000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1347,33 +1409,33 @@
         <v>0.122</v>
       </c>
       <c r="C44">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D44">
-        <v>320.039</v>
+        <v>320.03899999999999</v>
       </c>
       <c r="E44">
-        <v>5.031</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>5.0309999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C45">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D45">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E45">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1381,194 +1443,194 @@
         <v>0.161</v>
       </c>
       <c r="C46">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D46">
         <v>105.494</v>
       </c>
       <c r="E46">
-        <v>0.607</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C47">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D47">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E47">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C48">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D48">
-        <v>304127.023</v>
+        <v>304127.02299999999</v>
       </c>
       <c r="E48">
-        <v>55221.472</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>55221.472000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.204</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="C49">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D49">
-        <v>581603.732</v>
+        <v>581603.73199999996</v>
       </c>
       <c r="E49">
-        <v>18506.778</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>18506.777999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>67.337</v>
+        <v>67.337000000000003</v>
       </c>
       <c r="E50">
-        <v>2.377</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>2.3769999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C51">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D51">
-        <v>9964044.829</v>
+        <v>9964044.8289999999</v>
       </c>
       <c r="E51">
-        <v>786825.586</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>786825.58600000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>10595803.565</v>
+        <v>10595803.564999999</v>
       </c>
       <c r="E52">
         <v>150052.821</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.258</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="C53">
-        <v>0.008999999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D53">
         <v>47.32</v>
       </c>
       <c r="E53">
-        <v>0.701</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.707</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="C54">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D54">
         <v>5440.37</v>
       </c>
       <c r="E54">
-        <v>1069.685</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>1069.6849999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.212</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="C55">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D55">
-        <v>107.635</v>
+        <v>107.63500000000001</v>
       </c>
       <c r="E55">
         <v>13.894</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.089</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="C56">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D56">
-        <v>3469.715</v>
+        <v>3469.7150000000001</v>
       </c>
       <c r="E56">
         <v>266.202</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="C57">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D57">
         <v>58.22</v>
@@ -1577,7 +1639,7 @@
         <v>12.936</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -1585,33 +1647,33 @@
         <v>0.19</v>
       </c>
       <c r="C58">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D58">
-        <v>14102.327</v>
+        <v>14102.326999999999</v>
       </c>
       <c r="E58">
-        <v>973.669</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>973.66899999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.385</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="C59">
         <v>0.03</v>
       </c>
       <c r="D59">
-        <v>1415.589</v>
+        <v>1415.5889999999999</v>
       </c>
       <c r="E59">
-        <v>134.754</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>134.75399999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1619,7 +1681,7 @@
         <v>0.432</v>
       </c>
       <c r="C60">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D60">
         <v>123.459</v>
@@ -1628,58 +1690,58 @@
         <v>6.819</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.418</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="C61">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D61">
-        <v>160.515</v>
+        <v>160.51499999999999</v>
       </c>
       <c r="E61">
-        <v>8.198</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>8.1980000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.356</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="C62">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D62">
-        <v>96.417</v>
+        <v>96.417000000000002</v>
       </c>
       <c r="E62">
-        <v>17.798</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>17.797999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C63">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D63">
-        <v>1052.439</v>
+        <v>1052.4390000000001</v>
       </c>
       <c r="E63">
         <v>161.011</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -1687,16 +1749,16 @@
         <v>0.17</v>
       </c>
       <c r="C64">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D64">
-        <v>7331.401</v>
+        <v>7331.4009999999998</v>
       </c>
       <c r="E64">
-        <v>300.873</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>300.87299999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -1707,30 +1769,30 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>17632.664</v>
+        <v>17632.664000000001</v>
       </c>
       <c r="E65">
-        <v>0.272</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.238</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="C66">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D66">
-        <v>4772.694</v>
+        <v>4772.6940000000004</v>
       </c>
       <c r="E66">
-        <v>899.373</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>899.37300000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -1738,84 +1800,84 @@
         <v>0.106</v>
       </c>
       <c r="C67">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D67">
-        <v>2539.072</v>
+        <v>2539.0720000000001</v>
       </c>
       <c r="E67">
-        <v>470.347</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>470.34699999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C68">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D68">
         <v>12.048</v>
       </c>
       <c r="E68">
-        <v>0.359</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.117</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="C69">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D69">
-        <v>12380488.3</v>
+        <v>12380488.300000001</v>
       </c>
       <c r="E69">
-        <v>1475921.559</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>1475921.5589999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="C70">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D70">
-        <v>2028200.195</v>
+        <v>2028200.1950000001</v>
       </c>
       <c r="E70">
-        <v>397076.993</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>397076.99300000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.268</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="C71">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D71">
         <v>5294078.46</v>
       </c>
       <c r="E71">
-        <v>21960.757</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>21960.757000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -1823,30 +1885,36 @@
         <v>0.02</v>
       </c>
       <c r="C72">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D72">
         <v>11.85</v>
       </c>
       <c r="E72">
-        <v>1.935</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>1.9350000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="C73">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D73">
         <v>26.33</v>
       </c>
       <c r="E73">
-        <v>2.769</v>
+        <v>2.7690000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f>AVERAGE(B2:B73)</f>
+        <v>0.14302777777777784</v>
       </c>
     </row>
   </sheetData>
